--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>广发中证全指建筑材料指数C</t>
   </si>
   <si>
+    <t>15.82</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
     <t>94.50</t>
   </si>
   <si>
     <t>2.75</t>
+  </si>
+  <si>
+    <t>0.4350</t>
+  </si>
+  <si>
+    <t>0.1160</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004856</t>
-  </si>
-  <si>
-    <t>004857</t>
-  </si>
-  <si>
-    <t>广发中证全指建筑材料指数A</t>
-  </si>
-  <si>
-    <t>广发中证全指建筑材料指数C</t>
-  </si>
-  <si>
-    <t>15.82</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>0.4350</t>
-  </si>
-  <si>
-    <t>0.1160</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,1555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1997,4 +1998,590 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2584,4 +2585,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2593,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2604,17 +2605,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2624,14 +2645,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8712</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2640,14 +2683,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.83</v>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2656,13 +2721,819 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3448,7 +3449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3459,17 +3460,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3479,14 +3500,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.66</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3495,14 +3538,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3511,14 +3576,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.83</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3527,13 +3614,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3733,7 +3734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3744,17 +3745,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3764,14 +3785,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3780,14 +3823,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.66</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3796,14 +3861,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3812,14 +3899,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -3828,13 +4037,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004856</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4350</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1160</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.10</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6442</t>
+          <t>0.2478</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>159745</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>99.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4241</t>
+          <t>0.2007</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2780</t>
+          <t>0.1837</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -753,1250 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>516750</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>富国中证全指建筑材料ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>98.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1629</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1611</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1290</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010613</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1160</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002657</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商安裕灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1118</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0851</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0823</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011503</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信智能生活混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0643</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0540</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>200015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城优化升级混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0409</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010120</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010698</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中融行业先锋6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002658</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商安裕灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>28.24</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009726</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010614</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003004</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商睿祥定期开放混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>46.77</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009727</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010121</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2071,26 +857,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2832</t>
+          <t>0.3718</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2109,26 +895,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1478</t>
+          <t>0.1640</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2137,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233009</t>
+          <t>159745</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩多因子精选策略混合</t>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>98.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.1049</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2175,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159745</t>
+          <t>970020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.23</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0967</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2213,36 +999,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>970021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2251,338 +1037,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010740</t>
+          <t>516750</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安核心价值混合A</t>
+          <t>富国中证全指建筑材料ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>98.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010120</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010741</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001392</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001393</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009039</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010121</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009040</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +1934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,7 +1955,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3511,26 +1995,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3718</t>
+          <t>0.2832</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3549,26 +2033,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1640</t>
+          <t>0.1478</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3577,36 +2061,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159745</t>
+          <t>233009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+          <t>大摩多因子精选策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.37</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1049</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3615,36 +2099,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>970020</t>
+          <t>159745</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达价值精选一年持有期灵活配置混合A</t>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>98.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0967</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3653,36 +2137,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>970021</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达价值精选一年持有期灵活配置混合B</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3691,36 +2175,338 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516750</t>
+          <t>010740</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证全指建筑材料ETF</t>
+          <t>汇安核心价值混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.22</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3755,7 +2541,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3785,36 +2571,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>59.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2478</t>
+          <t>0.6442</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3823,36 +2609,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159745</t>
+          <t>010697</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+          <t>中融行业先锋6个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.27</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2007</t>
+          <t>0.4241</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3861,36 +2647,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1837</t>
+          <t>0.2780</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3899,36 +2685,1250 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516750</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证全指建筑材料ETF</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.46</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>0.0197</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3942,128 +3942,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.55</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>8.66</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.82</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -583,6 +600,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1928,7 +2267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2514,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3936,7 +4275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000012-南玻A.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>8.66</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2853,7 +3230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4275,7 +4652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
